--- a/digital-objects/omap/5-liver-sims/v1.4/raw/omap-5-liver-sims.xlsx
+++ b/digital-objects/omap/5-liver-sims/v1.4/raw/omap-5-liver-sims.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/5-liver-sims/v1:3/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/5-liver-sims/v1.4/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3D00EE-8BDB-A541-925F-CEB0DCF484EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B65A96-FAD6-F348-ADBC-0F82C24F8FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="4960" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="34200" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-5-liver-sims" sheetId="1" r:id="rId1"/>
@@ -4441,12 +4441,6 @@
     <t>target_symbol</t>
   </si>
   <si>
-    <t>June 15, 2024</t>
-  </si>
-  <si>
-    <t>v1.3</t>
-  </si>
-  <si>
     <t>author_orcids</t>
   </si>
   <si>
@@ -4454,6 +4448,12 @@
   </si>
   <si>
     <t>https://doi.org/10.48539/HBM995.KTHD.545</t>
+  </si>
+  <si>
+    <t>June 15, 2025</t>
+  </si>
+  <si>
+    <t>v1.4</t>
   </si>
 </sst>
 </file>
@@ -5095,7 +5095,7 @@
   <dimension ref="A1:AR998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5469,7 +5469,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5518,7 +5518,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -5567,7 +5567,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5652,7 +5652,7 @@
         <v>26</v>
       </c>
       <c r="N11" s="48" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="O11" s="48" t="s">
         <v>28</v>
@@ -5676,7 +5676,7 @@
         <v>34</v>
       </c>
       <c r="V11" s="48" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="W11" s="48" t="s">
         <v>35</v>
